--- a/REGULAR/TREASURY/FERNANDEZ, MILAGROS CARAAN.xlsx
+++ b/REGULAR/TREASURY/FERNANDEZ, MILAGROS CARAAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD6EB1-B9D4-4B6A-B9CF-4D52B809AACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DAA2F9-3A90-450B-8CC4-11EB77A1B4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1289,9 +1289,9 @@
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3936" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="3936" topLeftCell="A79" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,7 +1456,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>91.826999999999998</v>
+        <v>94.326999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1466,7 +1466,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>121.27000000000001</v>
+        <v>122.77000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2998,13 +2998,15 @@
         <v>44958</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -3015,19 +3017,27 @@
       <c r="A84" s="40">
         <v>44986</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="B84" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="39"/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H84" s="39">
+        <v>1</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="49">
+        <v>45014</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">

--- a/REGULAR/TREASURY/FERNANDEZ, MILAGROS CARAAN.xlsx
+++ b/REGULAR/TREASURY/FERNANDEZ, MILAGROS CARAAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DAA2F9-3A90-450B-8CC4-11EB77A1B4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A24F7A6-A6AD-4810-B06B-ECB1D017C8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1286,12 +1286,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3936" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3936" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,7 +1466,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>122.77000000000001</v>
+        <v>121.77000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3040,10 +3040,10 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B85" s="20"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -3052,14 +3052,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="49">
+        <v>44988</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3077,7 +3081,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3095,7 +3099,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3113,7 +3117,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3131,7 +3135,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3148,7 +3152,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45170</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3804,20 +3810,36 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
